--- a/CRDMA/docs/test_cases/packages/CDVM/verification_templates/category_1_CRDMA_CDVM_issue_verification.xlsx
+++ b/CRDMA/docs/test_cases/packages/CDVM/verification_templates/category_1_CRDMA_CDVM_issue_verification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse.Abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CDVM\verification_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CDVM\verification_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>CRUISE_NAME</t>
   </si>
@@ -136,6 +136,66 @@
   </si>
   <si>
     <t>The Cruise (SE-23-02) has a Cruise Leg (SE-23-02 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (02/10/2023) and End Date (02/25/2023) that does not have at least one type of Gear defined for it</t>
+  </si>
+  <si>
+    <t>HI-19-02</t>
+  </si>
+  <si>
+    <t>HI-19-02 Leg 1, HI-19-02 Leg 2</t>
+  </si>
+  <si>
+    <t>Missing Leg Data Set</t>
+  </si>
+  <si>
+    <t>The Leg does not have any data sets defined for it</t>
+  </si>
+  <si>
+    <t>The Cruise (HI-19-02) has a Cruise Leg (HI-19-02 Leg 1) on the Vessel (Hi'ialakai) with a Start Date (12/01/2018) and End Date (12/09/2018) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>MISS_DATA_SET_YN</t>
+  </si>
+  <si>
+    <t>Invalid Leg Timezone</t>
+  </si>
+  <si>
+    <t>The leg's timezone does not match a timezone value in the Oracle reference list</t>
+  </si>
+  <si>
+    <t>The Cruise (HI-20-08) has a Cruise Leg (HI-20-08 Leg 1) on the Vessel (Hi'ialakai) with a Start Date (06/10/2020) and End Date (06/29/2020) has an invalid timezone (Something else) specified for it</t>
+  </si>
+  <si>
+    <t>INV_TZ_NAME_YN</t>
+  </si>
+  <si>
+    <t>SE-20-04</t>
+  </si>
+  <si>
+    <t>SE-20-04 Leg 1</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-20-04) has a Cruise Leg (SE-20-04 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (03/20/2020) and End Date (04/15/2020) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>SE-21-01</t>
+  </si>
+  <si>
+    <t>SE-21-01 Leg 1, SE-21-01 Leg 2</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-21-01) has a Cruise Leg (SE-21-01 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (10/15/2020) and End Date (10/30/2020) has an invalid timezone (IDK What is this field?) specified for it</t>
+  </si>
+  <si>
+    <t>SE-23-01</t>
+  </si>
+  <si>
+    <t>SE-23-01 Leg 1</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-23-01) has a Cruise Leg (SE-23-01 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (01/15/2023) and End Date (01/31/2023) that does not have at least one data set associated with it</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-23-02) has a Cruise Leg (SE-23-02 Leg 1) on the Vessel (Oscar Elton Sette) with a Start Date (02/10/2023) and End Date (02/25/2023) that does not have at least one data set associated with it</t>
   </si>
 </sst>
 </file>
@@ -151,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +537,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD7"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,58 +575,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -571,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
@@ -579,10 +646,10 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -594,55 +661,193 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -658,16 +863,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="203.28515625" bestFit="1" customWidth="1"/>
@@ -700,56 +905,56 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -761,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -769,10 +974,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -784,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -792,47 +997,185 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -846,7 +1189,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +1236,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A2</f>
-        <v>HI-20-08</v>
+        <v>HI-19-02</v>
       </c>
       <c r="B2" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A2,'Database Export'!A2)</f>
@@ -927,7 +1270,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A3</f>
-        <v>HI-20-09</v>
+        <v>HI-20-08</v>
       </c>
       <c r="B3" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A3,'Database Export'!A3)</f>
@@ -961,7 +1304,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A4</f>
-        <v>HI-21-06</v>
+        <v>HI-20-08</v>
       </c>
       <c r="B4" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A4,'Database Export'!A4)</f>
@@ -995,7 +1338,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A5</f>
-        <v>HI-21-07</v>
+        <v>HI-20-09</v>
       </c>
       <c r="B5" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A5,'Database Export'!A5)</f>
@@ -1029,7 +1372,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A6</f>
-        <v>SE-23-02</v>
+        <v>HI-21-06</v>
       </c>
       <c r="B6" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A6,'Database Export'!A6)</f>
@@ -1063,7 +1406,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A7</f>
-        <v>SE-23-02</v>
+        <v>HI-21-07</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A7,'Database Export'!A7)</f>
@@ -1095,9 +1438,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A8</f>
-        <v>0</v>
+        <v>SE-20-04</v>
       </c>
       <c r="B8" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A8,'Database Export'!A8)</f>
@@ -1129,9 +1472,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A9</f>
-        <v>0</v>
+        <v>SE-21-01</v>
       </c>
       <c r="B9" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A9,'Database Export'!A9)</f>
@@ -1163,9 +1506,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A10</f>
-        <v>0</v>
+        <v>SE-23-01</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A10,'Database Export'!A10)</f>
@@ -1197,9 +1540,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A11</f>
-        <v>0</v>
+        <v>SE-23-02</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A11,'Database Export'!A11)</f>
@@ -1231,9 +1574,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A12</f>
-        <v>0</v>
+        <v>SE-23-02</v>
       </c>
       <c r="B12" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A12,'Database Export'!A12)</f>
@@ -1265,9 +1608,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="2" t="str">
         <f>CCD_CRUISE_SUMM_ERR_V!A13</f>
-        <v>0</v>
+        <v>SE-23-02</v>
       </c>
       <c r="B13" s="2" t="b">
         <f>EXACT(CCD_CRUISE_SUMM_ERR_V!A13,'Database Export'!A13)</f>
